--- a/num_word_year.xlsx
+++ b/num_word_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beniv\OneDrive\שולחן העבודה\big data final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD81340A-817F-48FA-94E2-A03C684F378A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C78F1C6-C55A-45C3-911C-B1E098A76361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{A0144352-5F48-43B2-B220-5CD76DDBD852}"/>
   </bookViews>
@@ -30,6 +30,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>כמות מופעים של מילים לאורך השנים</t>
+  </si>
+  <si>
+    <t>שנים</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,6 +92,1042 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>כמות מופעים של מילים לאורך השנים</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>גיליון1!$B$1:$AD$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$B$2:$AD$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>145894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>179570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>215152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214314</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>217436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>223633</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>196810</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158594</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>259856</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>350429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>367876</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>368466</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>412172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>450259</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>520563</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>598709</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>674611</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>692785</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>849910</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>831440</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>949968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>962327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7679-48A0-A49B-1A4D5ACAF796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1405169464"/>
+        <c:axId val="1405170120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1405169464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405170120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405170120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405169464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2A3811-6353-459D-8E42-D7F4770D73A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +1427,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22899C7-3846-4FD7-A1E4-ADCECA55B2CC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.80859375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1987</v>
+      </c>
+      <c r="C1">
+        <v>1988</v>
+      </c>
+      <c r="D1">
+        <v>1989</v>
+      </c>
+      <c r="E1">
+        <v>1990</v>
+      </c>
+      <c r="F1">
+        <v>1991</v>
+      </c>
+      <c r="G1">
+        <v>1992</v>
+      </c>
+      <c r="H1">
+        <v>1993</v>
+      </c>
+      <c r="I1">
+        <v>1994</v>
+      </c>
+      <c r="J1">
+        <v>1995</v>
+      </c>
+      <c r="K1">
+        <v>1996</v>
+      </c>
+      <c r="L1">
+        <v>1997</v>
+      </c>
+      <c r="M1">
+        <v>1998</v>
+      </c>
+      <c r="N1">
+        <v>1999</v>
+      </c>
+      <c r="O1">
+        <v>2000</v>
+      </c>
+      <c r="P1">
+        <v>2001</v>
+      </c>
+      <c r="Q1">
+        <v>2002</v>
+      </c>
+      <c r="R1">
+        <v>2003</v>
+      </c>
+      <c r="S1">
+        <v>2004</v>
+      </c>
+      <c r="T1">
+        <v>2005</v>
+      </c>
+      <c r="U1">
+        <v>2006</v>
+      </c>
+      <c r="V1">
+        <v>2007</v>
+      </c>
+      <c r="W1">
+        <v>2008</v>
+      </c>
+      <c r="X1">
+        <v>2009</v>
+      </c>
+      <c r="Y1">
+        <v>2010</v>
+      </c>
+      <c r="Z1">
+        <v>2011</v>
+      </c>
+      <c r="AA1">
+        <v>2012</v>
+      </c>
+      <c r="AB1">
+        <v>2013</v>
+      </c>
+      <c r="AC1">
+        <v>2014</v>
+      </c>
+      <c r="AD1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>145894</v>
+      </c>
+      <c r="C2">
+        <v>128235</v>
+      </c>
+      <c r="D2">
+        <v>139166</v>
+      </c>
+      <c r="E2">
+        <v>179570</v>
+      </c>
+      <c r="F2">
+        <v>198801</v>
+      </c>
+      <c r="G2">
+        <v>177830</v>
+      </c>
+      <c r="H2">
+        <v>199285</v>
+      </c>
+      <c r="I2">
+        <v>203574</v>
+      </c>
+      <c r="J2">
+        <v>215152</v>
+      </c>
+      <c r="K2">
+        <v>210721</v>
+      </c>
+      <c r="L2">
+        <v>214314</v>
+      </c>
+      <c r="M2">
+        <v>217436</v>
+      </c>
+      <c r="N2">
+        <v>223633</v>
+      </c>
+      <c r="O2">
+        <v>196810</v>
+      </c>
+      <c r="P2">
+        <v>158594</v>
+      </c>
+      <c r="Q2">
+        <v>259856</v>
+      </c>
+      <c r="R2">
+        <v>350429</v>
+      </c>
+      <c r="S2">
+        <v>367876</v>
+      </c>
+      <c r="T2">
+        <v>368466</v>
+      </c>
+      <c r="U2">
+        <v>412172</v>
+      </c>
+      <c r="V2">
+        <v>450259</v>
+      </c>
+      <c r="W2">
+        <v>520563</v>
+      </c>
+      <c r="X2">
+        <v>598709</v>
+      </c>
+      <c r="Y2">
+        <v>674611</v>
+      </c>
+      <c r="Z2">
+        <v>692785</v>
+      </c>
+      <c r="AA2">
+        <v>849910</v>
+      </c>
+      <c r="AB2">
+        <v>831440</v>
+      </c>
+      <c r="AC2">
+        <v>949968</v>
+      </c>
+      <c r="AD2">
+        <v>962327</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>